--- a/output/0/tRNA-Val-TAC-2-1.xlsx
+++ b/output/0/tRNA-Val-TAC-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="49">
   <si>
     <t>chr11</t>
   </si>
@@ -159,27 +159,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>59318773</t>
-  </si>
-  <si>
-    <t>59318796</t>
-  </si>
-  <si>
-    <t>59318793</t>
-  </si>
-  <si>
-    <t>TGGCGCAATGGATAGCGCAT</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
 </sst>
 </file>
@@ -224,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -530,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -542,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -557,25 +536,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -589,22 +568,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -616,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>21</v>
@@ -625,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -648,22 +627,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -675,22 +654,22 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
         <v>14</v>
@@ -707,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -719,10 +698,10 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -734,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
@@ -743,16 +722,16 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -766,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -778,10 +757,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -793,25 +772,25 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
@@ -825,22 +804,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -852,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
         <v>15</v>
@@ -884,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -896,10 +875,10 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -911,25 +890,25 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
         <v>15</v>
@@ -943,22 +922,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -970,22 +949,22 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
         <v>14</v>
@@ -1002,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1014,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1029,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -1038,16 +1017,16 @@
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
@@ -1061,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1073,10 +1052,10 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1088,207 +1067,30 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q15" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
         <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
         <v>3</v>
       </c>
     </row>
